--- a/results/Signal_Generator_+_Spectrum_Analyzer_20250626.xlsx
+++ b/results/Signal_Generator_+_Spectrum_Analyzer_20250626.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:I5"/>
+  <dimension ref="A2:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,6 +527,112 @@
         </is>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Timestamp</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2025-06-26 14:32:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>SG Frequency (Hz)</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>SG Power (dBm)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>SA Center Frequency (Hz)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SA Span (Hz)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>SA Reference Level (dBm)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>SA RBW (Hz)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>SA VBW (Hz)</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Marker Frequency (Hz)</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Marker Power (dBm)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1.000 GHz</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-30.00 dBm</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>1.000 GHz</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10000000.0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>10000.0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1.000 GHz</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>-25.00 dBm</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
